--- a/biology/Zoologie/Bombyx_de_la_ronce/Bombyx_de_la_ronce.xlsx
+++ b/biology/Zoologie/Bombyx_de_la_ronce/Bombyx_de_la_ronce.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Macrothylacia rubi
 Le Bombyx de la ronce, Macrothylacia rubi (la polyphage ou anneau du diable désignent la chenille) est une espèce de lépidoptères (papillons) appartenant à la famille des Lasiocampidae.
@@ -512,7 +524,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Envergure du mâle : de 18 à 25 mm.
 			Les œufs
@@ -549,7 +563,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Répartition
 de l’Europe occidentale à l’Asie centrale.
@@ -582,7 +598,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Période de vol : de mai à juillet en une génération, les mâles sont actifs jour et nuit, les femelles, la nuit.
 Plantes-hôtes : nombreuses espèces dont des ronces, divers sous-arbrisseaux, des herbacées (Fragaria, Potentilla)...
@@ -614,13 +632,50 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce a été décrite  par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Phalaena rubi[1]. C'est l'espèce type du genre.
-Synonymie
-Phalaena rubi Linné, 1758 protonyme
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite  par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Phalaena rubi. C'est l'espèce type du genre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bombyx_de_la_ronce</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bombyx_de_la_ronce</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Phalaena rubi Linné, 1758 protonyme
 Macrothylacia pygmaea Reuter, 1893
-Macrothylacia rubi ab. transfuga Krulikowsky, 1908[2]</t>
+Macrothylacia rubi ab. transfuga Krulikowsky, 1908</t>
         </is>
       </c>
     </row>
